--- a/National Life Higher Return.xlsx
+++ b/National Life Higher Return.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Average S&amp;P 500 Return</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Average S&amp;P 500 Annual Return</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Average S&amp;P 500 IUL Return</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Average S&amp;P 500 IUL Compounded Return</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Note: IUL Cap: 9.25%, Buffer: 0.00%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Compounded Average S&amp;P 500 Annual Return</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Compounded Average S&amp;P 500 IUL Return</t>
         </is>
       </c>
     </row>
@@ -468,10 +488,30 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>2.16%</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>332.51%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4.92%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.59%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>5.94%</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -486,10 +526,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>3.70%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>351.35%</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5.15%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -504,10 +556,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>2.35%</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>328.50%</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.87%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -522,10 +586,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>3.47%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>355.08%</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5.20%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -540,10 +616,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>3.84%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>356.61%</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5.22%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -558,10 +646,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>5.31%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>374.09%</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5.42%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -576,10 +676,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>4.19%</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>358.69%</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5.24%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -594,10 +706,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>4.44%</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>358.73%</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5.24%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -612,10 +736,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>4.20%</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>350.26%</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>5.14%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -630,10 +766,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>5.05%</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>369.22%</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5.36%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -648,10 +796,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>5.15%</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>378.44%</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5.47%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -666,10 +826,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>5.24%</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>384.29%</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5.53%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -684,10 +856,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>5.37%</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>381.04%</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5.50%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -702,10 +886,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>7.08%</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>410.27%</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5.81%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -720,10 +916,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>7.28%</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>412.29%</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>5.83%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -738,10 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>8.08%</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>415.83%</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5.87%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -756,10 +976,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>9.25%</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>442.86%</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>6.13%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -774,10 +1006,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>11.55%</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>483.71%</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6.51%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -792,10 +1036,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>11.60%</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>492.66%</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>6.59%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -810,10 +1066,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>9.96%</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>451.30%</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>6.21%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -828,10 +1096,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>9.23%</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>448.43%</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>6.19%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -846,10 +1126,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>9.19%</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>457.87%</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>6.27%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -864,10 +1156,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>9.62%</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>469.01%</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>6.38%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -882,10 +1186,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>9.30%</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>462.91%</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>6.32%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -900,10 +1216,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>9.30%</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>470.31%</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>6.39%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -918,10 +1246,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>10.23%</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>497.72%</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>6.63%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -936,10 +1276,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>7.86%</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>455.80%</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>6.26%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -954,10 +1306,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>6.56%</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>456.07%</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>6.26%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -972,10 +1336,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>6.73%</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>456.40%</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>6.26%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -990,10 +1366,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>6.08%</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>447.05%</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>6.17%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1008,10 +1396,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>5.52%</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>438.85%</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>6.09%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1026,10 +1426,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>6.80%</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>470.61%</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>6.39%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1044,10 +1456,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>6.64%</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>470.64%</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>6.39%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1062,10 +1486,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>6.78%</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>474.50%</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>6.43%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1080,10 +1516,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>6.24%</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>454.31%</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>6.24%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1098,10 +1546,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>6.55%</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>458.01%</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>6.28%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1116,10 +1576,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>6.71%</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>457.62%</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>6.27%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1134,10 +1606,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>6.91%</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>470.17%</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>6.39%</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1152,10 +1636,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>6.58%</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>466.67%</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>6.36%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1170,10 +1666,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>6.95%</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>466.89%</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>6.36%</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1188,10 +1696,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>5.43%</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>439.08%</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>6.10%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1206,10 +1726,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>4.42%</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>424.66%</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>5.96%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1224,10 +1756,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>4.59%</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>424.57%</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>5.95%</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/National Life Higher Return.xlsx
+++ b/National Life Higher Return.xlsx
@@ -504,12 +504,12 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.59%</t>
+          <t>7.20%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5.94%</t>
+          <t>5.97%</t>
         </is>
       </c>
     </row>
